--- a/docs/deliverable2/Getana_Deliverable_2_TeamMemberReport_2.xlsx
+++ b/docs/deliverable2/Getana_Deliverable_2_TeamMemberReport_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/deliverable2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C8B5B-3D41-964A-9E3F-C71F841AE108}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24962FE8-9C0B-CE4F-8748-6DABFE356300}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arpit" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>Unfamiliarity with Android Studio/Google Maps API</t>
   </si>
   <si>
-    <t>Contributed to proposal presentation slideshow; Contributed to project implementation plan; Partcipated in focus group; Particpated in proposal presentation; Started work on Maps API code implementation</t>
-  </si>
-  <si>
     <t>Becoming more comfortable with Studio/Maps</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Contributed to project implementation plan; Partcipated/took notes in focus group meeting; Particpated in proposal presentation; Completed hashmap for builing names to coordinates; Updated Kanban board; Completed Sprint 2 review; Created and updated sprint 2 backlog; Updated daily scrum report; Updated team member report; Completed focus group document with results;</t>
+  </si>
+  <si>
+    <t>Contributed to proposal presentation slideshow; Partcipated in focus group; Particpated in proposal presentation;</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -530,12 +530,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="39" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView zoomScale="159" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +618,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -634,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -642,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -717,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -725,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -800,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -808,7 +808,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -883,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -974,7 +974,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
